--- a/IdentifyNewBikes/output.xlsx
+++ b/IdentifyNewBikes/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="31">
   <si>
     <t>Bike Name</t>
   </si>

--- a/IdentifyNewBikes/output.xlsx
+++ b/IdentifyNewBikes/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="31">
   <si>
     <t>Bike Name</t>
   </si>

--- a/IdentifyNewBikes/output.xlsx
+++ b/IdentifyNewBikes/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="31">
   <si>
     <t>Bike Name</t>
   </si>
@@ -1140,13 +1140,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
